--- a/biology/Médecine/Hépatite_B_en_Chine/Hépatite_B_en_Chine.xlsx
+++ b/biology/Médecine/Hépatite_B_en_Chine/Hépatite_B_en_Chine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9patite_B_en_Chine</t>
+          <t>Hépatite_B_en_Chine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hépatite B est reconnue comme endémique de Chine par l'Organisation mondiale de la santé[1]. À peu près 400 millions de personnes sont infectées par le virus de l'hépatite B (HBV) au niveau mondial[2]. On estime que 130 millions de Chinois sont infectés par la maladie, à peu près 10 pour cent de la population de la Chine et un tiers des cas mondiaux[réf. nécessaire]. Près d'un million de nouveaux cas ont été rapportés en Chine en 2005[réf. nécessaire].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hépatite B est reconnue comme endémique de Chine par l'Organisation mondiale de la santé. À peu près 400 millions de personnes sont infectées par le virus de l'hépatite B (HBV) au niveau mondial. On estime que 130 millions de Chinois sont infectés par la maladie, à peu près 10 pour cent de la population de la Chine et un tiers des cas mondiaux[réf. nécessaire]. Près d'un million de nouveaux cas ont été rapportés en Chine en 2005[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9patite_B_en_Chine</t>
+          <t>Hépatite_B_en_Chine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,109 +520,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Épidémiologie</t>
+          <t>Impact social</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Prévalence
-Vecteurs</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>H%C3%A9patite_B_en_Chine</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9patite_B_en_Chine</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Programmes</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prise de conscience dans le public
-Vaccination
-Traitement</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H%C3%A9patite_B_en_Chine</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9patite_B_en_Chine</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Intervention gouvernementale</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Problèmes
-Recherche
-Progrès</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H%C3%A9patite_B_en_Chine</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9patite_B_en_Chine</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Impact social</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Discrimination
-En Chine, les porteurs de l'hépatite B, qui sont plus de 100 millions, feraient l’objet d’une discrimination à l'emploi et l'éducation. Il existerait environ une vingtaine de lois à caractère discriminatoire. Des examens sanguins sont demandés dans le cadre professionnel et éducatif. Les porteurs de l'hépatite B sont exclus d’éducation dès l’école maternelle dans certaines provinces chinoises. En 2009, l'association Yirenping[3],[4] qui fait campagne depuis quelques années en Chine contre la discrimination à l’égard des porteurs de l'hépatite B Chine a lancé une pétition sur Internet, et malgré la fermeture demandée par la cyber police chinoise, a recueilli 2040 signatures adressées à Wen Jiabao[5].
-"Dans les camps de l'hépatite B"</t>
+          <t>Discrimination</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Chine, les porteurs de l'hépatite B, qui sont plus de 100 millions, feraient l’objet d’une discrimination à l'emploi et l'éducation. Il existerait environ une vingtaine de lois à caractère discriminatoire. Des examens sanguins sont demandés dans le cadre professionnel et éducatif. Les porteurs de l'hépatite B sont exclus d’éducation dès l’école maternelle dans certaines provinces chinoises. En 2009, l'association Yirenping, qui fait campagne depuis quelques années en Chine contre la discrimination à l’égard des porteurs de l'hépatite B Chine a lancé une pétition sur Internet, et malgré la fermeture demandée par la cyber police chinoise, a recueilli 2040 signatures adressées à Wen Jiabao.
+</t>
         </is>
       </c>
     </row>
